--- a/biology/Histoire de la zoologie et de la botanique/Urs_Noel_Glutz_von_Blotzheim/Urs_Noel_Glutz_von_Blotzheim.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Urs_Noel_Glutz_von_Blotzheim/Urs_Noel_Glutz_von_Blotzheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urs Noel Glutz von Blotzheim, né le 18 décembre 1932 à Soleure, est un zoologiste suisse travaillant principalement en ornithologie. Glutz von Blotzheim est professeur émérite à l'université de Berne.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carrière académique
-Urs Noel Glutz von Blotzheim nait le 18 décembre 1932 à Soleure. Il étudie la zoologie à Fribourg. Il enseigne à partir de 1962, et devient professeur honoraire en 1975 à l'Université de Berne. Il prend sa retraite en 1998, après avoir supervisé 35 travaux de diplômes et 17 thèses de doctorat[1].
-Production
-Son œuvre majeure est la collection Handbuchs der Vögel Mitteleuropas, publiée en 14 volumes de 1966 à 1997 : ces 15 000 pages sont une contribution d'importance à l'ornithologie en Europe[1].
+          <t>Carrière académique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urs Noel Glutz von Blotzheim nait le 18 décembre 1932 à Soleure. Il étudie la zoologie à Fribourg. Il enseigne à partir de 1962, et devient professeur honoraire en 1975 à l'Université de Berne. Il prend sa retraite en 1998, après avoir supervisé 35 travaux de diplômes et 17 thèses de doctorat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Urs_Noel_Glutz_von_Blotzheim</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urs_Noel_Glutz_von_Blotzheim</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Son œuvre majeure est la collection Handbuchs der Vögel Mitteleuropas, publiée en 14 volumes de 1966 à 1997 : ces 15 000 pages sont une contribution d'importance à l'ornithologie en Europe.
 Urs Noel Glutz von Blotzheim est membre des sociétés suivantes :
 Deutsche Ornithologen-Gesellschaft (1972)
 British Ornithologists' Union (1980)
